--- a/model_interpol/ModelosKalman.xlsx
+++ b/model_interpol/ModelosKalman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Valor</t>
   </si>
@@ -34,13 +34,10 @@
     <t>Sigma^2</t>
   </si>
   <si>
-    <t>finp_com_Mensual_VariacionAnual</t>
+    <t>imae_com_car_Mensual_VariacionAnual</t>
   </si>
   <si>
     <t>imae_com_imp_vl_Mensual_VariacionAnual</t>
-  </si>
-  <si>
-    <t>finp_osd_vig_Mensual_VariacionAnual</t>
   </si>
 </sst>
 </file>
@@ -398,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,13 +417,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.01008029471314169</v>
+        <v>0.8999999999961392</v>
       </c>
       <c r="C2">
-        <v>0.2964886035267007</v>
+        <v>0.03303174421124225</v>
       </c>
       <c r="D2">
-        <v>-0.03399892809786834</v>
+        <v>27.246517599571</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,13 +431,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7541381876761194</v>
+        <v>-0.7220053190368045</v>
       </c>
       <c r="C3">
-        <v>0.1107200850846631</v>
+        <v>0.1504857263508647</v>
       </c>
       <c r="D3">
-        <v>6.811213946407838</v>
+        <v>-4.79783256887377</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4.185871440810243e-05</v>
+        <v>6.291442657065208e-05</v>
       </c>
       <c r="C4">
-        <v>2.232128125968552e-05</v>
+        <v>1.531209539723464e-05</v>
       </c>
       <c r="D4">
-        <v>1.875282781535641</v>
+        <v>4.108805812561382</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5.361920065131866e-07</v>
+        <v>0.01263255428678063</v>
       </c>
       <c r="C5">
-        <v>0.02764720089979273</v>
+        <v>0.003749625651095044</v>
       </c>
       <c r="D5">
-        <v>1.939407929419743e-05</v>
+        <v>3.369017459940677</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,27 +473,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.02492837001639409</v>
+        <v>0.0002002147704412127</v>
       </c>
       <c r="C6">
-        <v>0.01524361151937275</v>
+        <v>0.003510401254405213</v>
       </c>
       <c r="D6">
-        <v>1.635332282294994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.1621620854688431</v>
-      </c>
-      <c r="C7">
-        <v>0.06356655513043284</v>
-      </c>
-      <c r="D7">
-        <v>2.551059832267158</v>
+        <v>0.0570347250730846</v>
       </c>
     </row>
   </sheetData>

--- a/model_interpol/ModelosKalman.xlsx
+++ b/model_interpol/ModelosKalman.xlsx
@@ -417,13 +417,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.8999999999961392</v>
+        <v>0.8999999999999369</v>
       </c>
       <c r="C2">
-        <v>0.03303174421124225</v>
+        <v>0.03490285347208475</v>
       </c>
       <c r="D2">
-        <v>27.246517599571</v>
+        <v>25.78585732882143</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +431,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.7220053190368045</v>
+        <v>-0.6216845178180505</v>
       </c>
       <c r="C3">
-        <v>0.1504857263508647</v>
+        <v>0.2182101619069827</v>
       </c>
       <c r="D3">
-        <v>-4.79783256887377</v>
+        <v>-2.849017261089144</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>6.291442657065208e-05</v>
+        <v>5.720743176165817e-05</v>
       </c>
       <c r="C4">
-        <v>1.531209539723464e-05</v>
+        <v>1.500577515528092e-05</v>
       </c>
       <c r="D4">
-        <v>4.108805812561382</v>
+        <v>3.812360985665268</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.01263255428678063</v>
+        <v>0.008397811688179997</v>
       </c>
       <c r="C5">
-        <v>0.003749625651095044</v>
+        <v>0.002894526922369497</v>
       </c>
       <c r="D5">
-        <v>3.369017459940677</v>
+        <v>2.901272613248123</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,13 +473,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002002147704412127</v>
+        <v>0.003800576622071374</v>
       </c>
       <c r="C6">
-        <v>0.003510401254405213</v>
+        <v>0.003769912648092094</v>
       </c>
       <c r="D6">
-        <v>0.0570347250730846</v>
+        <v>1.008133868564514</v>
       </c>
     </row>
   </sheetData>

--- a/model_interpol/ModelosKalman.xlsx
+++ b/model_interpol/ModelosKalman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Valor</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>imae_com_imp_vl_Mensual_VariacionAnual</t>
+  </si>
+  <si>
+    <t>ipc1_viv_Mensual_VariacionAnual</t>
+  </si>
+  <si>
+    <t>ipc1_trp_Mensual_VariacionAnual</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,13 +423,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.8999999999999369</v>
-      </c>
-      <c r="C2">
-        <v>0.03490285347208475</v>
-      </c>
-      <c r="D2">
-        <v>25.78585732882143</v>
+        <v>0.446554736394093</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +431,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.6216845178180505</v>
-      </c>
-      <c r="C3">
-        <v>0.2182101619069827</v>
-      </c>
-      <c r="D3">
-        <v>-2.849017261089144</v>
+        <v>0.4072226748610478</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,13 +439,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5.720743176165817e-05</v>
-      </c>
-      <c r="C4">
-        <v>1.500577515528092e-05</v>
-      </c>
-      <c r="D4">
-        <v>3.812360985665268</v>
+        <v>8.333733890211151e-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,13 +447,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.008397811688179997</v>
+        <v>0.02307533918204666</v>
       </c>
       <c r="C5">
-        <v>0.002894526922369497</v>
+        <v>0.006710638690665692</v>
       </c>
       <c r="D5">
-        <v>2.901272613248123</v>
+        <v>3.438620412412279</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,13 +461,41 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.003800576622071374</v>
+        <v>0.02098723263794183</v>
       </c>
       <c r="C6">
-        <v>0.003769912648092094</v>
+        <v>0.008336857196556526</v>
       </c>
       <c r="D6">
-        <v>1.008133868564514</v>
+        <v>2.517403398322625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.04164678034380098</v>
+      </c>
+      <c r="C7">
+        <v>0.04114478680723512</v>
+      </c>
+      <c r="D7">
+        <v>1.012200659561507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.04366798015278113</v>
+      </c>
+      <c r="C8">
+        <v>0.02151688507588755</v>
+      </c>
+      <c r="D8">
+        <v>2.029474991327474</v>
       </c>
     </row>
   </sheetData>

--- a/model_interpol/ModelosKalman.xlsx
+++ b/model_interpol/ModelosKalman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Valor</t>
   </si>
@@ -34,16 +34,10 @@
     <t>Sigma^2</t>
   </si>
   <si>
-    <t>imae_com_car_Mensual_VariacionAnual</t>
-  </si>
-  <si>
-    <t>imae_com_imp_vl_Mensual_VariacionAnual</t>
-  </si>
-  <si>
-    <t>ipc1_viv_Mensual_VariacionAnual</t>
-  </si>
-  <si>
-    <t>ipc1_trp_Mensual_VariacionAnual</t>
+    <t>ipc1_viv_12Meses_VariacionAnual</t>
+  </si>
+  <si>
+    <t>ipc1_trp_12Meses_VariacionAnual</t>
   </si>
 </sst>
 </file>
@@ -401,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +417,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.446554736394093</v>
+        <v>0.07183641497503533</v>
+      </c>
+      <c r="C2">
+        <v>0.1608697492129824</v>
+      </c>
+      <c r="D2">
+        <v>0.4465501769380394</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,7 +431,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.4072226748610478</v>
+        <v>0.9787952315683596</v>
+      </c>
+      <c r="C3">
+        <v>0.01568458574186482</v>
+      </c>
+      <c r="D3">
+        <v>62.40491446043035</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -439,7 +445,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>8.333733890211151e-05</v>
+        <v>1.882307052480336e-05</v>
+      </c>
+      <c r="C4">
+        <v>5.63357661783477e-06</v>
+      </c>
+      <c r="D4">
+        <v>3.341229169620824</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.02307533918204666</v>
+        <v>0.0557933519617467</v>
       </c>
       <c r="C5">
-        <v>0.006710638690665692</v>
+        <v>0.08806165633224489</v>
       </c>
       <c r="D5">
-        <v>3.438620412412279</v>
+        <v>0.6335714576074498</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,41 +473,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.02098723263794183</v>
+        <v>0.02975690200620316</v>
       </c>
       <c r="C6">
-        <v>0.008336857196556526</v>
+        <v>0.05652456695511272</v>
       </c>
       <c r="D6">
-        <v>2.517403398322625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.04164678034380098</v>
-      </c>
-      <c r="C7">
-        <v>0.04114478680723512</v>
-      </c>
-      <c r="D7">
-        <v>1.012200659561507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.04366798015278113</v>
-      </c>
-      <c r="C8">
-        <v>0.02151688507588755</v>
-      </c>
-      <c r="D8">
-        <v>2.029474991327474</v>
+        <v>0.5264419279821057</v>
       </c>
     </row>
   </sheetData>

--- a/model_interpol/ModelosKalman.xlsx
+++ b/model_interpol/ModelosKalman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Valor</t>
   </si>
@@ -34,10 +34,19 @@
     <t>Sigma^2</t>
   </si>
   <si>
-    <t>ipc1_viv_12Meses_VariacionAnual</t>
-  </si>
-  <si>
-    <t>ipc1_trp_12Meses_VariacionAnual</t>
+    <t>ipc1_viv_Mensual_VariacionAnual</t>
+  </si>
+  <si>
+    <t>ipc1_trp_Mensual_VariacionAnual</t>
+  </si>
+  <si>
+    <t>imae_Mensual_VariacionAnual</t>
+  </si>
+  <si>
+    <t>imae_com_imp_vl_Mensual_VariacionAnual</t>
+  </si>
+  <si>
+    <t>imae_com_car_Mensual_VariacionAnual</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,13 +426,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.07183641497503533</v>
+        <v>-0.3693942673299484</v>
       </c>
       <c r="C2">
-        <v>0.1608697492129824</v>
+        <v>0.1729395100234981</v>
       </c>
       <c r="D2">
-        <v>0.4465501769380394</v>
+        <v>-2.135973828535521</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +440,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9787952315683596</v>
+        <v>0.5083572134673632</v>
       </c>
       <c r="C3">
-        <v>0.01568458574186482</v>
+        <v>0.1644701486298851</v>
       </c>
       <c r="D3">
-        <v>62.40491446043035</v>
+        <v>3.090878300422427</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,13 +454,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.882307052480336e-05</v>
+        <v>7.626791304198114e-05</v>
       </c>
       <c r="C4">
-        <v>5.63357661783477e-06</v>
+        <v>2.423083221482035e-05</v>
       </c>
       <c r="D4">
-        <v>3.341229169620824</v>
+        <v>3.147556483649507</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,13 +468,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0557933519617467</v>
+        <v>9.951019939617659e-09</v>
       </c>
       <c r="C5">
-        <v>0.08806165633224489</v>
+        <v>0.05572557197851388</v>
       </c>
       <c r="D5">
-        <v>0.6335714576074498</v>
+        <v>1.785718761837828e-07</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,13 +482,55 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.02975690200620316</v>
+        <v>8.567520013812664e-09</v>
       </c>
       <c r="C6">
-        <v>0.05652456695511272</v>
+        <v>0.02392043524960703</v>
       </c>
       <c r="D6">
-        <v>0.5264419279821057</v>
+        <v>3.581673963877147e-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.4212771255836556</v>
+      </c>
+      <c r="C7">
+        <v>0.06181439971243331</v>
+      </c>
+      <c r="D7">
+        <v>6.815193992718176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.008657631697879413</v>
+      </c>
+      <c r="C8">
+        <v>0.01132681332568958</v>
+      </c>
+      <c r="D8">
+        <v>0.7643484048813289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.0304327865294477</v>
+      </c>
+      <c r="C9">
+        <v>0.01021349194436823</v>
+      </c>
+      <c r="D9">
+        <v>2.979665201207554</v>
       </c>
     </row>
   </sheetData>

--- a/model_interpol/ModelosKalman.xlsx
+++ b/model_interpol/ModelosKalman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Valor</t>
   </si>
@@ -34,19 +34,10 @@
     <t>Sigma^2</t>
   </si>
   <si>
-    <t>ipc1_viv_Mensual_VariacionAnual</t>
-  </si>
-  <si>
-    <t>ipc1_trp_Mensual_VariacionAnual</t>
-  </si>
-  <si>
-    <t>imae_Mensual_VariacionAnual</t>
-  </si>
-  <si>
-    <t>imae_com_imp_vl_Mensual_VariacionAnual</t>
-  </si>
-  <si>
-    <t>imae_com_car_Mensual_VariacionAnual</t>
+    <t>ipc1_viv_12Meses_VariacionAnual</t>
+  </si>
+  <si>
+    <t>ipc1_trp_12Meses_VariacionAnual</t>
   </si>
 </sst>
 </file>
@@ -404,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,13 +417,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.3693942673299484</v>
+        <v>0.07183641497503533</v>
       </c>
       <c r="C2">
-        <v>0.1729395100234981</v>
+        <v>0.1608697492129824</v>
       </c>
       <c r="D2">
-        <v>-2.135973828535521</v>
+        <v>0.4465501769380394</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,13 +431,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5083572134673632</v>
+        <v>0.9787952315683596</v>
       </c>
       <c r="C3">
-        <v>0.1644701486298851</v>
+        <v>0.01568458574186482</v>
       </c>
       <c r="D3">
-        <v>3.090878300422427</v>
+        <v>62.40491446043035</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>7.626791304198114e-05</v>
+        <v>1.882307052480336e-05</v>
       </c>
       <c r="C4">
-        <v>2.423083221482035e-05</v>
+        <v>5.63357661783477e-06</v>
       </c>
       <c r="D4">
-        <v>3.147556483649507</v>
+        <v>3.341229169620824</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>9.951019939617659e-09</v>
+        <v>0.0557933519617467</v>
       </c>
       <c r="C5">
-        <v>0.05572557197851388</v>
+        <v>0.08806165633224489</v>
       </c>
       <c r="D5">
-        <v>1.785718761837828e-07</v>
+        <v>0.6335714576074498</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,55 +473,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>8.567520013812664e-09</v>
+        <v>0.02975690200620316</v>
       </c>
       <c r="C6">
-        <v>0.02392043524960703</v>
+        <v>0.05652456695511272</v>
       </c>
       <c r="D6">
-        <v>3.581673963877147e-07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.4212771255836556</v>
-      </c>
-      <c r="C7">
-        <v>0.06181439971243331</v>
-      </c>
-      <c r="D7">
-        <v>6.815193992718176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.008657631697879413</v>
-      </c>
-      <c r="C8">
-        <v>0.01132681332568958</v>
-      </c>
-      <c r="D8">
-        <v>0.7643484048813289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.0304327865294477</v>
-      </c>
-      <c r="C9">
-        <v>0.01021349194436823</v>
-      </c>
-      <c r="D9">
-        <v>2.979665201207554</v>
+        <v>0.5264419279821057</v>
       </c>
     </row>
   </sheetData>
